--- a/spliced/struggle/2023-03-25_18-16-05/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-05/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-9.702054977416992</v>
+        <v>-4.876684755086883</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.42457103729248</v>
+        <v>-2.076402157545074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6105778217315674</v>
+        <v>-9.344285488128664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-8.849106550216675</v>
+        <v>1.809403181076058</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.858214139938354</v>
+        <v>13.51332342624669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.880838930606842</v>
+        <v>-4.600637912750224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.048381686210634</v>
+        <v>1.417896926403043</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.857648134231568</v>
+        <v>18.05351507663726</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.309569776058197</v>
+        <v>-2.601601481437687</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.53068429231644</v>
+        <v>-2.472576022148132</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.25731372833252</v>
+        <v>6.250693678855895</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.43639099597931</v>
+        <v>-9.09222507476807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-9.41212439537048</v>
+        <v>-2.629937916994093</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.72038459777832</v>
+        <v>4.76309457421303</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.504557847976685</v>
+        <v>-12.27247226238251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.460869312286377</v>
+        <v>-7.906721115112305</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.427237629890437</v>
+        <v>-1.656690835952763</v>
       </c>
       <c r="C7" t="n">
-        <v>1.441004037857059</v>
+        <v>-8.986274719238274</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.302718639373779</v>
+        <v>-7.878847062587737</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.253605723381049</v>
+        <v>-3.47562119364739</v>
       </c>
       <c r="C8" t="n">
-        <v>10.39484345912933</v>
+        <v>-5.723703801631919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.388760656118388</v>
+        <v>-3.529585599899285</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.768014729022983</v>
+        <v>-1.653401762247083</v>
       </c>
       <c r="C9" t="n">
-        <v>6.439942181110383</v>
+        <v>-10.57092201709748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.242257833480832</v>
+        <v>-8.618583738803876</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.37810611724854</v>
+        <v>-1.921446576714518</v>
       </c>
       <c r="C10" t="n">
-        <v>7.145387649536128</v>
+        <v>-7.590942263603199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.09027406573295726</v>
+        <v>-6.864823818206775</v>
       </c>
       <c r="B11" t="n">
-        <v>-8.224010169506073</v>
+        <v>-3.412744522094729</v>
       </c>
       <c r="C11" t="n">
-        <v>3.237534523010252</v>
+        <v>-9.644531726837165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-9.543408751487744</v>
+        <v>-0.3932898044586127</v>
       </c>
       <c r="B12" t="n">
-        <v>-8.638795256614687</v>
+        <v>-2.516493201255787</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.813618898391731</v>
+        <v>-11.63133525848387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.876684755086883</v>
+        <v>-0.3210607767105248</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.076402157545074</v>
+        <v>2.201687335968037</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.344285488128664</v>
+        <v>-5.495597958564743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.809403181076058</v>
+        <v>-3.88015073537826</v>
       </c>
       <c r="B14" t="n">
-        <v>13.51332342624669</v>
+        <v>7.319447636604309</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.600637912750224</v>
+        <v>-2.401085853576681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.417896926403043</v>
+        <v>-2.474413871765147</v>
       </c>
       <c r="B15" t="n">
-        <v>18.05351507663726</v>
+        <v>7.422795295715336</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.601601481437687</v>
+        <v>-7.479803562164315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.472576022148132</v>
+        <v>-4.692895889282228</v>
       </c>
       <c r="B16" t="n">
-        <v>6.250693678855895</v>
+        <v>8.487199664115906</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.09222507476807</v>
+        <v>-9.337096989154816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.629937916994093</v>
+        <v>-3.639542102813719</v>
       </c>
       <c r="B17" t="n">
-        <v>4.76309457421303</v>
+        <v>8.090452075004578</v>
       </c>
       <c r="C17" t="n">
-        <v>-12.27247226238251</v>
+        <v>-3.927529096603386</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-7.906721115112305</v>
+        <v>-5.387722790241247</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.656690835952763</v>
+        <v>3.111244738101949</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.986274719238274</v>
+        <v>8.269636750221276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-7.878847062587737</v>
+        <v>-1.612288236618022</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.47562119364739</v>
+        <v>0.4680981636047372</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.723703801631919</v>
+        <v>12.90354442596435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.529585599899285</v>
+        <v>0.8442984223365615</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.653401762247083</v>
+        <v>-0.4397069215774612</v>
       </c>
       <c r="C20" t="n">
-        <v>-10.57092201709748</v>
+        <v>9.103015005588517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-8.618583738803876</v>
+        <v>-3.634706258773804</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.921446576714518</v>
+        <v>-4.129897594451904</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.590942263603199</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-6.864823818206775</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.412744522094729</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-9.644531726837165</v>
+        <v>6.328503251075745</v>
       </c>
     </row>
   </sheetData>
